--- a/AAII_Financials/Quarterly/OPNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPNT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>OPNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,165 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F8" s="3">
         <v>20600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>6800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11700</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>3800</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>13500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F9" s="3">
         <v>4900</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
         <v>1500</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>1400</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
@@ -820,41 +833,47 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F10" s="3">
         <v>15700</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
         <v>3300</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>10300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
@@ -864,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,52 +907,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>3600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,43 +1003,49 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
@@ -1014,8 +1053,14 @@
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F17" s="3">
         <v>10000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>14400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>11000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>800</v>
+      </c>
+      <c r="F18" s="3">
         <v>10600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-9600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-9300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>7100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>10600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1188,7 +1255,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1197,101 +1264,113 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>10700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-9500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-9300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>7200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-5600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>10700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
@@ -1308,55 +1387,67 @@
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>900</v>
+      </c>
+      <c r="F23" s="3">
         <v>10700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-9500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-9300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>7200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>10600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1370,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1382,25 +1473,31 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>10700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-9500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-9300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>7000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>10600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>10700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-9500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-9300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>7000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>10600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1716,7 +1855,7 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -1725,78 +1864,90 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>10700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-9500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-9300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>7000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>10600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>10700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-9500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-9300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>7000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>10600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F41" s="3">
         <v>23200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>23900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>23800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>24600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>24800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>11200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>8100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>9700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>12900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,52 +2235,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F43" s="3">
         <v>16100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>4100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>11700</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>3800</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,96 +2335,114 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>39300</v>
+      </c>
+      <c r="F46" s="3">
         <v>40200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>28800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>26200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>29400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>29300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>14800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>13700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>20800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>10800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>9800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>13000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,25 +2485,31 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2320,8 +2535,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2585,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2496,8 +2735,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>40300</v>
+      </c>
+      <c r="F54" s="3">
         <v>41400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>28800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>26300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>29400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>29300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>14800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>13800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>20800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>13000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,52 +2879,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>2000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1500</v>
       </c>
       <c r="G57" s="3">
         <v>1100</v>
       </c>
       <c r="H57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,98 +2973,116 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F59" s="3">
         <v>7500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>8000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>8700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F60" s="3">
         <v>9400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,52 +3125,64 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2200</v>
       </c>
       <c r="K62" s="3">
         <v>2100</v>
       </c>
       <c r="L62" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="M62" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="N62" s="3">
         <v>2400</v>
       </c>
       <c r="O62" s="3">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="P62" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R62" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F66" s="3">
         <v>9800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>12500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-64500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-63900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-74600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-76200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-74400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-64900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-64000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-62600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-53200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-60200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-54600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-54300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-51100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F76" s="3">
         <v>31600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>20100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>16800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>16900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>25200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13000</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>4300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>10700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-9500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-9300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>7000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>10600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3673,8 +4070,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>11900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,20 +4394,22 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3981,11 +4422,11 @@
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3999,8 +4440,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,20 +4540,26 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
@@ -4113,11 +4572,11 @@
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4131,8 +4590,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,75 +4810,87 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>900</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>14600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4413,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>13600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>11700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>OPNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,175 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E8" s="3">
         <v>4300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11700</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>3800</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>13500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
         <v>900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4900</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
         <v>1500</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>1400</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
@@ -839,44 +846,47 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E10" s="3">
         <v>3400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>15700</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
         <v>3300</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>10300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,16 +1026,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1026,29 +1046,29 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E17" s="3">
         <v>6000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,19 +1279,20 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
@@ -1270,84 +1304,90 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1372,8 +1412,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
@@ -1393,61 +1433,67 @@
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1455,17 +1501,17 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1479,25 +1525,28 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,19 +1913,22 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
@@ -1870,84 +1940,90 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E41" s="3">
         <v>32200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,58 +2331,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E43" s="3">
         <v>4200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11700</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>3800</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,49 +2437,52 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
-      </c>
-      <c r="G45" s="3">
-        <v>500</v>
       </c>
       <c r="H45" s="3">
         <v>500</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
       </c>
       <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
-      </c>
-      <c r="M45" s="3">
-        <v>900</v>
       </c>
       <c r="N45" s="3">
         <v>900</v>
       </c>
       <c r="O45" s="3">
+        <v>900</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2391,58 +2490,64 @@
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E46" s="3">
         <v>37400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>39300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>40200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>29400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>29300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,28 +2596,31 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E54" s="3">
         <v>38300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>40300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>41400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>29400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>29300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3011,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2979,110 +3113,119 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2100</v>
       </c>
       <c r="L59" s="3">
         <v>2100</v>
       </c>
       <c r="M59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N59" s="3">
         <v>2500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>5700</v>
       </c>
       <c r="M60" s="3">
         <v>5700</v>
       </c>
       <c r="N60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,58 +3274,64 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>2700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>7800</v>
       </c>
       <c r="M66" s="3">
         <v>7800</v>
       </c>
       <c r="N66" s="3">
+        <v>7800</v>
+      </c>
+      <c r="O66" s="3">
         <v>6800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-64500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-62800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-63900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-74600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-76200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-74400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-64900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-64000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-62600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-53200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-60200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-54600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-54300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-51100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E76" s="3">
         <v>33800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>34400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13000</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="P76" s="3">
         <v>4300</v>
       </c>
       <c r="Q76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="R76" s="3">
         <v>6000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,23 +4616,24 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
@@ -4428,8 +4649,8 @@
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,23 +4773,26 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
@@ -4578,8 +4808,8 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,67 +5059,73 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>14600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
@@ -4892,8 +5141,8 @@
       <c r="J101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>OPNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,185 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E8" s="3">
         <v>6300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11700</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>3800</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>13500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4900</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>1500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>1400</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
@@ -849,47 +856,50 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E10" s="3">
         <v>4900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>15700</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>3300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>10300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
@@ -902,8 +912,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,61 +936,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E12" s="3">
         <v>600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1040,8 +1060,8 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1049,29 +1069,29 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E17" s="3">
         <v>6500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1307,87 +1341,93 @@
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1415,8 +1455,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
@@ -1436,64 +1476,70 @@
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1504,17 +1550,17 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1528,25 +1574,28 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,13 +1995,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -1943,87 +2013,93 @@
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E41" s="3">
         <v>30500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>32200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,61 +2424,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E43" s="3">
         <v>6300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11700</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>3800</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,52 +2536,55 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
       </c>
       <c r="I45" s="3">
         <v>500</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
       </c>
       <c r="L45" s="3">
+        <v>300</v>
+      </c>
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
-      </c>
-      <c r="N45" s="3">
-        <v>900</v>
       </c>
       <c r="O45" s="3">
         <v>900</v>
       </c>
       <c r="P45" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2493,61 +2592,67 @@
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E46" s="3">
         <v>38700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>37400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>39300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>40200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>28800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>29400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,31 +2704,34 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2652,8 +2760,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,31 +2928,34 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E54" s="3">
         <v>39400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>38300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>40300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>41400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>29400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3142,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3116,116 +3250,125 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2100</v>
       </c>
       <c r="M59" s="3">
         <v>2100</v>
       </c>
       <c r="N59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>5700</v>
       </c>
       <c r="N60" s="3">
         <v>5700</v>
       </c>
       <c r="O60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="P60" s="3">
         <v>4300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3420,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3286,52 +3432,55 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>2700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>7800</v>
       </c>
       <c r="N66" s="3">
         <v>7800</v>
       </c>
       <c r="O66" s="3">
+        <v>7800</v>
+      </c>
+      <c r="P66" s="3">
         <v>6800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-64700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-64500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-63900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-74600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-76200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-74400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-64900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-64000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-62600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-53200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-60200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-54600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-54300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-51100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E76" s="3">
         <v>34300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>34400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>31600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13000</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="3">
         <v>4300</v>
       </c>
       <c r="R76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S76" s="3">
         <v>6000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,26 +4837,27 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
@@ -4652,8 +4873,8 @@
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4670,8 +4891,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,26 +5003,29 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
@@ -4811,8 +5041,8 @@
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4829,8 +5059,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5305,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5071,64 +5317,67 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>14600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
@@ -5144,8 +5393,8 @@
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>OPNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,188 +665,194 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E8" s="3">
         <v>9100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11700</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>3800</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>13500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4900</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>1500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>1400</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
@@ -859,50 +865,53 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>15700</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>3300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>10300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
@@ -915,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="3">
         <v>2800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,13 +1065,16 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
@@ -1063,8 +1082,8 @@
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1072,29 +1091,29 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
@@ -1105,8 +1124,11 @@
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E17" s="3">
         <v>8400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1326,13 +1359,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1344,113 +1377,119 @@
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1458,8 +1497,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
@@ -1479,72 +1518,78 @@
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1553,17 +1598,17 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1577,25 +1622,28 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1998,13 +2067,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -2016,90 +2085,96 @@
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E41" s="3">
         <v>31100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,64 +2516,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E43" s="3">
         <v>8600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11700</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>3800</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2539,55 +2634,58 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
       </c>
       <c r="M45" s="3">
+        <v>300</v>
+      </c>
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
-      </c>
-      <c r="O45" s="3">
-        <v>900</v>
       </c>
       <c r="P45" s="3">
         <v>900</v>
       </c>
       <c r="Q45" s="3">
+        <v>900</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
-      </c>
-      <c r="R45" s="3">
-        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -2595,64 +2693,70 @@
       <c r="T45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E46" s="3">
         <v>40600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>38700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>37400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>39300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>40200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,34 +2811,37 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2763,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2819,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,16 +3047,19 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
+      <c r="E52" s="3">
+        <v>1100</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
@@ -2957,8 +3076,8 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2987,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E54" s="3">
         <v>42200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>39400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>38300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>41400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3253,127 +3386,136 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>2100</v>
       </c>
       <c r="N59" s="3">
         <v>2100</v>
       </c>
       <c r="O59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P59" s="3">
         <v>2500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E60" s="3">
         <v>6700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>5700</v>
       </c>
       <c r="O60" s="3">
         <v>5700</v>
       </c>
       <c r="P60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="Q60" s="3">
         <v>4300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>18700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3423,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3435,52 +3580,55 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>2700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E66" s="3">
         <v>6700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>7800</v>
       </c>
       <c r="O66" s="3">
         <v>7800</v>
       </c>
       <c r="P66" s="3">
+        <v>7800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>6800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-64000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-64700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-64500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-62800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-63900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-74600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-76200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-74400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-64900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-64000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-62600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-53200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-60200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-54600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-54300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-51100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,8 +4355,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4182,55 +4367,58 @@
         <v>35500</v>
       </c>
       <c r="E76" s="3">
+        <v>35500</v>
+      </c>
+      <c r="F76" s="3">
         <v>34300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>33800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>34400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13000</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
       <c r="Q76" s="3">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="R76" s="3">
         <v>4300</v>
       </c>
       <c r="S76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T76" s="3">
         <v>6000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4480,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,29 +5057,30 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
@@ -4876,8 +5096,8 @@
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4894,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5015,20 +5244,20 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
@@ -5044,8 +5273,8 @@
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5062,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,79 +5550,85 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>18700</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>14600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
@@ -5396,8 +5644,8 @@
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5420,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>OPNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,204 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E8" s="3">
         <v>9900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11700</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>3800</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>13500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4900</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>1500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1400</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
@@ -868,53 +875,56 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E10" s="3">
         <v>8000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>15700</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>3300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>10300</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E12" s="3">
         <v>4500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,16 +1085,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
@@ -1085,8 +1105,8 @@
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1094,29 +1114,29 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E17" s="3">
         <v>10900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1362,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1380,102 +1414,108 @@
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1491,8 +1531,8 @@
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1500,8 +1540,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
@@ -1521,79 +1561,85 @@
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>10600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1601,17 +1647,17 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1625,25 +1671,28 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>10600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>10600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2070,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -2088,93 +2158,99 @@
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,90 +2487,94 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E41" s="3">
         <v>48300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>32200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>12600</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2519,67 +2609,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E43" s="3">
         <v>8900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11700</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>3800</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,58 +2733,61 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
-      </c>
-      <c r="J45" s="3">
-        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
       </c>
       <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
-      </c>
-      <c r="P45" s="3">
-        <v>900</v>
       </c>
       <c r="Q45" s="3">
         <v>900</v>
       </c>
       <c r="R45" s="3">
+        <v>900</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2696,90 +2795,96 @@
       <c r="U45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E46" s="3">
         <v>59100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>40600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>38700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>37400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>39300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>40200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>20800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2814,37 +2919,40 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,19 +3167,22 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+      <c r="F52" s="3">
+        <v>1100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
@@ -3079,8 +3199,8 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E54" s="3">
         <v>60600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>42200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>39400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>38300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>41400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3389,137 +3523,146 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
         <v>3500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>2100</v>
       </c>
       <c r="O59" s="3">
         <v>2100</v>
       </c>
       <c r="P59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E60" s="3">
         <v>6400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>5700</v>
       </c>
       <c r="P60" s="3">
         <v>5700</v>
       </c>
       <c r="Q60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="R60" s="3">
         <v>4300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E61" s="3">
         <v>18700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3568,13 +3711,16 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3583,52 +3729,55 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>2700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E66" s="3">
         <v>25100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>7800</v>
       </c>
       <c r="P66" s="3">
         <v>7800</v>
       </c>
       <c r="Q66" s="3">
+        <v>7800</v>
+      </c>
+      <c r="R66" s="3">
         <v>6800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-67500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-64700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-64000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-64700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-64500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-62800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-63900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-74600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-76200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-74400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-64900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-64000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-62600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-53200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-60200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-54600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-54300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-51100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>35500</v>
+        <v>34000</v>
       </c>
       <c r="E76" s="3">
         <v>35500</v>
       </c>
       <c r="F76" s="3">
+        <v>35500</v>
+      </c>
+      <c r="G76" s="3">
         <v>34300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>33800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>34400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13000</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
       <c r="R76" s="3">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="S76" s="3">
         <v>4300</v>
       </c>
       <c r="T76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="U76" s="3">
         <v>6000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,32 +5278,33 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
@@ -5099,8 +5320,8 @@
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,32 +5462,35 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-15100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
@@ -5276,8 +5506,8 @@
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,85 +5796,91 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>18700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>14600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
@@ -5647,8 +5896,8 @@
       <c r="M101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E102" s="3">
         <v>17100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>OPNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,214 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E8" s="3">
         <v>6400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11700</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>3800</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>13500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>1500</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>1400</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
@@ -878,56 +885,59 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E10" s="3">
         <v>5400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>3300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>10300</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E12" s="3">
         <v>4100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,19 +1105,22 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
@@ -1108,8 +1128,8 @@
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1117,29 +1137,29 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>5</v>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,13 +1414,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1399,13 +1433,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1417,96 +1451,102 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>10700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1514,11 +1554,11 @@
         <v>500</v>
       </c>
       <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1534,8 +1574,8 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1543,8 +1583,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
@@ -1564,73 +1604,79 @@
       <c r="U22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1638,11 +1684,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1650,17 +1696,17 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1674,25 +1720,28 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>10600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>10600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,13 +2192,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2143,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -2161,96 +2231,102 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>10600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>10600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,79 +2574,83 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E41" s="3">
         <v>35400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>48300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>32200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E42" s="3">
         <v>12600</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2576,8 +2666,8 @@
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2612,70 +2702,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E43" s="3">
         <v>5600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>11700</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>3800</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,61 +2832,64 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>500</v>
       </c>
       <c r="M45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
       </c>
       <c r="O45" s="3">
+        <v>300</v>
+      </c>
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>900</v>
       </c>
       <c r="R45" s="3">
         <v>900</v>
       </c>
       <c r="S45" s="3">
+        <v>900</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
-      </c>
-      <c r="T45" s="3">
-        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -2798,79 +2897,85 @@
       <c r="V45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E46" s="3">
         <v>56100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>59100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>40600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>38700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>37400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>39300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>40200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>20800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
         <v>2500</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2886,8 +2991,8 @@
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2922,40 +3027,43 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3179,13 +3299,13 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
+      <c r="G52" s="3">
+        <v>1100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
@@ -3202,8 +3322,8 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E54" s="3">
         <v>58900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>60600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>42200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>39400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>38300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>41400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,70 +3534,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3526,134 +3660,143 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>2100</v>
       </c>
       <c r="P59" s="3">
         <v>2100</v>
       </c>
       <c r="Q59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R59" s="3">
         <v>2500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E60" s="3">
         <v>6100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>5700</v>
       </c>
       <c r="Q60" s="3">
         <v>5700</v>
       </c>
       <c r="R60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="S60" s="3">
         <v>4300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3661,11 +3804,11 @@
         <v>18800</v>
       </c>
       <c r="E61" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F61" s="3">
         <v>18700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3714,16 +3857,19 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3732,52 +3878,55 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>2700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E66" s="3">
         <v>24900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>7800</v>
       </c>
       <c r="Q66" s="3">
         <v>7800</v>
       </c>
       <c r="R66" s="3">
+        <v>7800</v>
+      </c>
+      <c r="S66" s="3">
         <v>6800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-67500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-64700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-64000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-64700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-64500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-62800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-63900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-74600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-76200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-74400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-64900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-64000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-62600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-53200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-60200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-54600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-54300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-51100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E76" s="3">
         <v>34000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>35500</v>
       </c>
       <c r="F76" s="3">
         <v>35500</v>
       </c>
       <c r="G76" s="3">
+        <v>35500</v>
+      </c>
+      <c r="H76" s="3">
         <v>34300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>33800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>34400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>31600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13000</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
       <c r="S76" s="3">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="T76" s="3">
         <v>4300</v>
       </c>
       <c r="U76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="V76" s="3">
         <v>6000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>10600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>11900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,35 +5499,36 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
@@ -5323,8 +5544,8 @@
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,35 +5692,38 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
@@ -5509,8 +5739,8 @@
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>18700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>14600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5870,20 +6119,20 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
       </c>
@@ -5899,8 +6148,8 @@
       <c r="N101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>OPNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,217 +665,224 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E8" s="3">
         <v>11300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11700</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>3800</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>13500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E9" s="3">
         <v>2100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>1500</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>1400</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
@@ -888,59 +895,62 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E10" s="3">
         <v>9200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15700</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>3300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>10300</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
@@ -953,8 +963,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,73 +991,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E12" s="3">
         <v>3100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1125,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1119,11 +1139,11 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
@@ -1131,8 +1151,8 @@
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1140,29 +1160,29 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>5</v>
@@ -1173,8 +1193,11 @@
       <c r="W14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E17" s="3">
         <v>9000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,17 +1448,18 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1436,13 +1470,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -1454,99 +1488,105 @@
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>10700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1557,11 +1597,11 @@
         <v>500</v>
       </c>
       <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1577,8 +1617,8 @@
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1586,8 +1626,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
@@ -1607,76 +1647,82 @@
       <c r="V22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1687,11 +1733,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1699,17 +1745,17 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1723,25 +1769,28 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>10600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E27" s="3">
         <v>1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>10600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,17 +2262,20 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2216,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
@@ -2234,99 +2304,105 @@
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E33" s="3">
         <v>1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E35" s="3">
         <v>1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,85 +2661,89 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E41" s="3">
         <v>33400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>35400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>48300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>32200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E42" s="3">
         <v>15100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>12600</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2669,8 +2759,8 @@
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2705,73 +2795,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E43" s="3">
         <v>9700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11700</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>3800</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,64 +2931,67 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
-      </c>
-      <c r="L45" s="3">
-        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>500</v>
       </c>
       <c r="N45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
       </c>
       <c r="P45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
-      </c>
-      <c r="R45" s="3">
-        <v>900</v>
       </c>
       <c r="S45" s="3">
         <v>900</v>
       </c>
       <c r="T45" s="3">
+        <v>900</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
-      </c>
-      <c r="U45" s="3">
-        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -2900,85 +2999,91 @@
       <c r="W45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E46" s="3">
         <v>60500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>56100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>59100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>40600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>38700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>37400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>39300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>29300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>20800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
         <v>2500</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2994,8 +3099,8 @@
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3030,43 +3135,46 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3095,8 +3203,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3271,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,25 +3407,28 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
+      <c r="H52" s="3">
+        <v>1100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -3325,8 +3445,8 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3355,8 +3475,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E54" s="3">
         <v>61800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>58900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>60600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>42200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>38300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,73 +3665,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3663,155 +3797,164 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>2100</v>
       </c>
       <c r="Q59" s="3">
         <v>2100</v>
       </c>
       <c r="R59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S59" s="3">
         <v>2500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E60" s="3">
         <v>5800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>5700</v>
       </c>
       <c r="R60" s="3">
         <v>5700</v>
       </c>
       <c r="S60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="T60" s="3">
         <v>4300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="E61" s="3">
         <v>18800</v>
       </c>
       <c r="F61" s="3">
+        <v>18800</v>
+      </c>
+      <c r="G61" s="3">
         <v>18700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3860,19 +4003,22 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3881,52 +4027,55 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>2700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E66" s="3">
         <v>25400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6400</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>7800</v>
       </c>
       <c r="R66" s="3">
         <v>7800</v>
       </c>
       <c r="S66" s="3">
+        <v>7800</v>
+      </c>
+      <c r="T66" s="3">
         <v>6800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-65800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-67500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-64700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-64000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-64700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-64500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-62800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-63900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-74600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-76200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-74400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-64900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-62600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-53200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-60200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-54600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-54300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-51100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E76" s="3">
         <v>36400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>34000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>35500</v>
       </c>
       <c r="G76" s="3">
         <v>35500</v>
       </c>
       <c r="H76" s="3">
+        <v>35500</v>
+      </c>
+      <c r="I76" s="3">
         <v>34300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>34400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13000</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
       <c r="T76" s="3">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="U76" s="3">
         <v>4300</v>
       </c>
       <c r="V76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="W76" s="3">
         <v>6000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E81" s="3">
         <v>1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5218,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5284,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>11900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5720,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5511,27 +5732,27 @@
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
@@ -5547,8 +5768,8 @@
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5565,8 +5786,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5922,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5704,29 +5934,29 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-15100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
@@ -5742,8 +5972,8 @@
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5760,8 +5990,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6288,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>18700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>14600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-200</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6122,20 +6371,20 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
@@ -6151,8 +6400,8 @@
       <c r="O101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -6175,69 +6424,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPNT_QTR_FIN.xlsx
@@ -768,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16300</v>
+        <v>34000</v>
       </c>
       <c r="E8" s="3">
         <v>11300</v>
@@ -836,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3100</v>
+        <v>6100</v>
       </c>
       <c r="E9" s="3">
         <v>2100</v>
@@ -904,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>13200</v>
+        <v>27900</v>
       </c>
       <c r="E10" s="3">
         <v>9200</v>
@@ -998,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4900</v>
+        <v>12100</v>
       </c>
       <c r="E12" s="3">
         <v>3100</v>
@@ -1293,7 +1293,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12400</v>
+        <v>30100</v>
       </c>
       <c r="E17" s="3">
         <v>9000</v>
@@ -1591,7 +1591,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="E22" s="3">
         <v>500</v>
@@ -1659,7 +1659,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="E23" s="3">
         <v>1700</v>
@@ -1727,7 +1727,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="E26" s="3">
         <v>1700</v>
@@ -1931,7 +1931,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="E27" s="3">
         <v>1700</v>
@@ -2339,7 +2339,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="E33" s="3">
         <v>1700</v>
@@ -2475,7 +2475,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="E35" s="3">
         <v>1700</v>
@@ -5131,7 +5131,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="E81" s="3">
         <v>1700</v>
@@ -5225,7 +5225,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5633,7 +5633,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-2100</v>
@@ -5931,7 +5931,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-15000</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -6297,7 +6297,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6433,7 +6433,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1800</v>
+        <v>-13000</v>
       </c>
       <c r="E102" s="3">
         <v>-2000</v>

--- a/AAII_Financials/Quarterly/OPNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>OPNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,347 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>34000</v>
+        <v>3900</v>
       </c>
       <c r="E8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F8" s="3">
+        <v>13800</v>
+      </c>
+      <c r="G8" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H8" s="3">
         <v>11300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>6400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>9900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>9100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>6300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>4300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>7700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>20600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>6800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>5400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>4800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>4400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>3200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>1700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>11700</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>3800</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>13500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="AA8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6100</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H9" s="3">
         <v>2100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>1900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>1400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>1600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>4900</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>1500</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>1400</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>27900</v>
+        <v>3400</v>
       </c>
       <c r="E10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G10" s="3">
+        <v>13200</v>
+      </c>
+      <c r="H10" s="3">
         <v>9200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>5400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>8000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>7100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>4900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>3400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>6100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>15700</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>3300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>10300</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,76 +1030,88 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>12100</v>
+        <v>7900</v>
       </c>
       <c r="E12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H12" s="3">
         <v>3100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
         <v>4100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>4500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>2800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>2000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>1800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>1600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="Q12" s="3">
         <v>3600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="R12" s="3">
         <v>2500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="S12" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1600</v>
-      </c>
-      <c r="R12" s="3">
-        <v>2400</v>
-      </c>
-      <c r="S12" s="3">
-        <v>900</v>
       </c>
       <c r="T12" s="3">
         <v>1600</v>
       </c>
       <c r="U12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V12" s="3">
+        <v>900</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X12" s="3">
         <v>1300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="Y12" s="3">
         <v>1100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Z12" s="3">
         <v>300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="AA12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1178,17 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1142,8 +1201,8 @@
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
@@ -1151,20 +1210,20 @@
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1172,32 +1231,41 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1332,17 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1364,165 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30100</v>
+        <v>15300</v>
       </c>
       <c r="E17" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>12400</v>
+      </c>
+      <c r="H17" s="3">
         <v>9000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>8700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>10900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>8400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>6500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>6000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>6900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>10000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>5400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>7300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>14400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>5300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>4500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>11000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>4600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>5700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="3">
         <v>3600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Y17" s="3">
         <v>3200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Z17" s="3">
         <v>2900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="AA17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G18" s="3">
         <v>3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>10600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-9600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>-9300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>7100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>-5700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="X18" s="3">
         <v>200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Y18" s="3">
         <v>-3200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Z18" s="3">
         <v>10600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="AA18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,61 +1547,64 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1517,100 +1618,118 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G21" s="3">
         <v>4000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>10700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-9500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>-1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>-9300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>7200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="W21" s="3">
         <v>-5600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="X21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="Y21" s="3">
         <v>-3100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Z21" s="3">
         <v>10700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="AA21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
       </c>
       <c r="G22" s="3">
+        <v>500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>500</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1620,23 +1739,23 @@
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>5</v>
@@ -1650,84 +1769,102 @@
       <c r="W22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2300</v>
+        <v>-11700</v>
       </c>
       <c r="E23" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H23" s="3">
         <v>1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>10700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-9500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-9300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>7200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>-5600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Y23" s="3">
         <v>-3100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Z23" s="3">
         <v>10600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1736,35 +1873,35 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1772,25 +1909,34 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +2003,171 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2200</v>
+        <v>-11700</v>
       </c>
       <c r="E26" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H26" s="3">
         <v>1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>10700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-9500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-9300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>7000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-5600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="3">
         <v>-3100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Z26" s="3">
         <v>10600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2200</v>
+        <v>-11700</v>
       </c>
       <c r="E27" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H27" s="3">
         <v>1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>10700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-9500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-9300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>7000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>-5600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Y27" s="3">
         <v>-3100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Z27" s="3">
         <v>10600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2234,17 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2311,17 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2388,17 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,61 +2465,70 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2333,76 +2542,94 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2200</v>
+        <v>-11700</v>
       </c>
       <c r="E33" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H33" s="3">
         <v>1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>10700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-9500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-9300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>7000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>-5600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Y33" s="3">
         <v>-3100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Z33" s="3">
         <v>10600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2696,176 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2200</v>
+        <v>-11700</v>
       </c>
       <c r="E35" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H35" s="3">
         <v>1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>10700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-9500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-9300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>7000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>-5600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Y35" s="3">
         <v>-3100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Z35" s="3">
         <v>10600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2890,11 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,97 +2919,109 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>48300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>37900</v>
+      </c>
+      <c r="G41" s="3">
         <v>35300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>33400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>35400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>48300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>31100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>30500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>32200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>31000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>23200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>23900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>23800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>24600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>24800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>11200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>11300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>8100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="W41" s="3">
         <v>5900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="X41" s="3">
         <v>6900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="Y41" s="3">
         <v>9700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Z41" s="3">
         <v>12900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="AA41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F42" s="3">
         <v>15000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H42" s="3">
         <v>15100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="I42" s="3">
         <v>12600</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2762,14 +3031,14 @@
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2798,76 +3067,94 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>13300</v>
+      </c>
+      <c r="G43" s="3">
         <v>15400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>9700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>5600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>8900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>8600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>6300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>4200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>7200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>16100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>4300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>2000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>4500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>4100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="T43" s="3">
         <v>3000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>1600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="V43" s="3">
         <v>11700</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>3800</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2934,144 +3221,171 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="T45" s="3">
         <v>600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="V45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="W45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="AA45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>59200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>69200</v>
+      </c>
+      <c r="G46" s="3">
         <v>67900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>60500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>56100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>59100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>40600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>38700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>37400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>39300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>40200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>28800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>26200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>29400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>29300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>14800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>13700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>20800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>6800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="X46" s="3">
         <v>10800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="Y46" s="3">
         <v>9800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Z46" s="3">
         <v>13000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="AA46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3081,18 +3395,18 @@
       <c r="E47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
         <v>2500</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3102,14 +3416,14 @@
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3138,52 +3452,61 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3206,8 +3529,17 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3274,8 +3606,17 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3683,17 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,35 +3760,44 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3448,14 +3807,14 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3478,8 +3837,17 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3914,94 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>60300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>70400</v>
+      </c>
+      <c r="G54" s="3">
         <v>69000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>61800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>58900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>60600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>42200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>39400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>38300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>40300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>41400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>28800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>26300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>29400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>29300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>14800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>13800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>20800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>6800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>10800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="Y54" s="3">
         <v>9800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Z54" s="3">
         <v>13000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="AA54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +4026,11 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,76 +4055,88 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>3700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>3500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>3200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="W57" s="3">
         <v>1300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="X57" s="3">
         <v>2200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="Y57" s="3">
         <v>1400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Z57" s="3">
         <v>800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="AA57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3800,170 +4201,197 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G59" s="3">
         <v>4800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>2900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>4300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>7500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>7700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>8000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>8700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>2400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>2100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>2100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>2500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>3100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>2000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="Y59" s="3">
         <v>1700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Z59" s="3">
         <v>4400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="AA59" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G60" s="3">
         <v>7400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>5800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>6100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>6400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>6700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>5100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>5600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>9400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>8800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>9500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>9800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>3700</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>4300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>5700</v>
-      </c>
-      <c r="S60" s="3">
-        <v>5700</v>
       </c>
       <c r="T60" s="3">
         <v>4300</v>
       </c>
       <c r="U60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="V60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="W60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="X60" s="3">
         <v>4200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="Y60" s="3">
         <v>3100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Z60" s="3">
         <v>5200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="AA60" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F61" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G61" s="3">
         <v>18900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>18800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>18800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>18700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4006,76 +4434,94 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
+        <v>700</v>
+      </c>
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>2700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="T62" s="3">
         <v>2100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="U62" s="3">
         <v>2200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="V62" s="3">
         <v>2100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="W62" s="3">
         <v>2400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="X62" s="3">
         <v>2300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="Y62" s="3">
         <v>2400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Z62" s="3">
         <v>1900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="AA62" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4588,17 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4665,17 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4742,94 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>23600</v>
+      </c>
+      <c r="G66" s="3">
         <v>27000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>25400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>24900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>25100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>6700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>5100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>5900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>9800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>8800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>9500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>12500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>4100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>6400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>7800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>7800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>6800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>6500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Y66" s="3">
         <v>5500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Z66" s="3">
         <v>7000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AA66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4854,11 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4925,17 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +5002,17 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +5079,17 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +5156,94 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-85600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-73900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-62400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-65800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-67500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-64700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-64000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-64700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-64500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-62800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-63900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-74600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-76200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-74400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-64900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-64000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-62600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-53200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-60200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-54600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>-54300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Z72" s="3">
         <v>-51100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="AA72" s="3">
         <v>-61800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +5310,17 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5387,17 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5464,94 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>39300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>46800</v>
+      </c>
+      <c r="G76" s="3">
         <v>42000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>36400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>34000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>35500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>35500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>34300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>33800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>34400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>31600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>20100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>16800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>16900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>25200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>8400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>5900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>13000</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
         <v>4300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Y76" s="3">
         <v>4300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Z76" s="3">
         <v>6000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AA76" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5618,176 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2200</v>
+        <v>-11700</v>
       </c>
       <c r="E81" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H81" s="3">
         <v>1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>10700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-9500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-9300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>7000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>-5600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Y81" s="3">
         <v>-3100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Z81" s="3">
         <v>10600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,13 +5812,16 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5287,8 +5883,17 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5960,17 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +6037,17 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +6114,17 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +6191,17 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +6268,94 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-10600</v>
       </c>
       <c r="E89" s="3">
         <v>-2100</v>
       </c>
       <c r="F89" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G89" s="3">
+        <v>300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I89" s="3">
         <v>1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>6900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>-1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>2200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>-2900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="X89" s="3">
         <v>-2800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="Y89" s="3">
         <v>-3200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Z89" s="3">
         <v>11900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,19 +6380,22 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5741,27 +6403,27 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
@@ -5771,14 +6433,14 @@
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5789,8 +6451,17 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6528,17 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,47 +6605,56 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15000</v>
+        <v>2500</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-15100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
@@ -5975,14 +6664,14 @@
       <c r="R94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -5993,8 +6682,17 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6717,11 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6788,17 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6865,17 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6942,17 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,81 +7019,99 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2200</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>600</v>
       </c>
       <c r="G100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>600</v>
+      </c>
+      <c r="J100" s="3">
         <v>18700</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>14600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -6374,26 +7120,26 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>5</v>
       </c>
@@ -6403,14 +7149,14 @@
       <c r="P101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -6427,72 +7173,90 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13000</v>
+        <v>-8200</v>
       </c>
       <c r="E102" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>-12800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>17100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>7800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>13600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>3200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="V102" s="3">
         <v>2200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="W102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="X102" s="3">
         <v>-2800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="Y102" s="3">
         <v>-3200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Z102" s="3">
         <v>11700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
     </row>
